--- a/chunkSizeTesting/results_embeding_model_0_67_threshold.xlsx
+++ b/chunkSizeTesting/results_embeding_model_0_67_threshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\chunkSizeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{189DE52A-38B3-4133-A5A5-EAA9CD5BAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BDA72-9D3B-448A-83F0-D85AB46244EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BA3453E-5E33-4245-A6B8-9B031A901A23}"/>
   </bookViews>
@@ -36,90 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Chunk_méret</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Pontosság(%)</t>
-  </si>
-  <si>
-    <t>Átlagos_feldolgozási_idő</t>
-  </si>
-  <si>
-    <t>Chunk_száma (max_token)</t>
   </si>
   <si>
     <t>Küszöbérték</t>
   </si>
   <si>
-    <t>Top_n</t>
-  </si>
-  <si>
     <t>text-embedding-ada-002</t>
-  </si>
-  <si>
-    <t>markdown_karrol_256_ada.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_384_ada.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_512_ada.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_768_ada.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_1024_ada.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_2048_ada.json</t>
   </si>
   <si>
     <t>text-embedding-3-large</t>
   </si>
   <si>
-    <t>markdown_karrol_256_.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_384_.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_512_.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_768_.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_1024_.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_2048_.json</t>
-  </si>
-  <si>
     <t>text-embedding-3-small</t>
   </si>
   <si>
-    <t>markdown_karrol_256_small.json</t>
+    <t>LLM model</t>
   </si>
   <si>
-    <t>markdown_karrol_384_small.json</t>
+    <t>Chunk méret</t>
   </si>
   <si>
-    <t>markdown_karrol_512_small.json</t>
+    <t>Átlagos feldolgozási idő</t>
   </si>
   <si>
-    <t>markdown_karrol_768_small.json</t>
+    <t>Chunk (darab) száma</t>
   </si>
   <si>
-    <t>markdown_karrol_1024_small.json</t>
-  </si>
-  <si>
-    <t>markdown_karrol_2048_small.json</t>
+    <t>Top k</t>
   </si>
 </sst>
 </file>
@@ -138,14 +84,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,11 +128,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,181 +476,186 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1.139030146598816</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>139</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>384</v>
+      </c>
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.68814419507980351</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>101</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G3" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>512</v>
+      </c>
+      <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.725343930721283</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>83</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>768</v>
+      </c>
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>1.2097603559494019</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>66</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.77455217838287349</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>61</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.69114625453948975</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>52</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G7" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>256</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -712,10 +675,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>25</v>
@@ -735,10 +698,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>512</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -758,10 +721,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>768</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -781,10 +744,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1024</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -804,10 +767,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2048</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -827,10 +790,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>256</v>
       </c>
       <c r="C14" s="1">
         <v>30</v>
@@ -850,10 +813,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>384</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
@@ -873,10 +836,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>512</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -896,10 +859,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>768</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -919,10 +882,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1024</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -942,10 +905,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2048</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>

--- a/chunkSizeTesting/results_embeding_model_0_67_threshold.xlsx
+++ b/chunkSizeTesting/results_embeding_model_0_67_threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\chunkSizeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BDA72-9D3B-448A-83F0-D85AB46244EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666F46E-9F96-4A01-B51F-70EEB9103B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BA3453E-5E33-4245-A6B8-9B031A901A23}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
-    <t>Pontosság(%)</t>
-  </si>
-  <si>
     <t>Küszöbérték</t>
   </si>
   <si>
@@ -53,19 +50,22 @@
     <t>text-embedding-3-small</t>
   </si>
   <si>
-    <t>LLM model</t>
-  </si>
-  <si>
     <t>Chunk méret</t>
-  </si>
-  <si>
-    <t>Átlagos feldolgozási idő</t>
   </si>
   <si>
     <t>Chunk (darab) száma</t>
   </si>
   <si>
     <t>Top k</t>
+  </si>
+  <si>
+    <t>Pontosság (%)</t>
+  </si>
+  <si>
+    <t>Átlagos feldolgozási idő (s)</t>
+  </si>
+  <si>
+    <t>LLM modell</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,30 +491,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>384</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>512</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>768</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>1024</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>2048</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>256</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>384</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>512</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>768</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>1024</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>2048</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>256</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>384</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>512</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>768</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>1024</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>2048</v>
